--- a/excel/Book1.xlsx
+++ b/excel/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Fonseca\Desktop\BLOX\blox\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{705F9338-43BA-4EEA-AA04-4ADDCF3ECED3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EF3FE-C63A-429B-845B-DCF08EE1394A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E06434F-E7E1-44D6-8390-C0FAB3174E9E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10611" uniqueCount="5243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10729" uniqueCount="5300">
   <si>
     <t>materias</t>
   </si>
@@ -15760,13 +15760,184 @@
   </si>
   <si>
     <t>Abordagem Sistêmica</t>
+  </si>
+  <si>
+    <t>Análise Multivariada de Dados</t>
+  </si>
+  <si>
+    <t>Capital, Mercado e Sistema Produtivo</t>
+  </si>
+  <si>
+    <t>Comportamento do Consumidor Internacional</t>
+  </si>
+  <si>
+    <t>Consumer Insights</t>
+  </si>
+  <si>
+    <t>Cultura e Consumo</t>
+  </si>
+  <si>
+    <t>Data Science e Inteligência Analítica</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Econômico e Padrões de Consumo</t>
+  </si>
+  <si>
+    <t>Economia do Consumo</t>
+  </si>
+  <si>
+    <t>Elementos de Filosofia da Ciência</t>
+  </si>
+  <si>
+    <t>Estágio Docente em Administração</t>
+  </si>
+  <si>
+    <t>Estética, Consumo Midiático e Dinâmicas Sócio-Culturais</t>
+  </si>
+  <si>
+    <t>Estilo de Vida e Consumo</t>
+  </si>
+  <si>
+    <t>Estratégia e Inovação Internacional</t>
+  </si>
+  <si>
+    <t>Estratégia Internacional e os Mercados Emergentes</t>
+  </si>
+  <si>
+    <t>Estudos Culturais, Processos de Recepção e de Consumo</t>
+  </si>
+  <si>
+    <t>Estudos de Comunicação e Linguagens</t>
+  </si>
+  <si>
+    <t>Ética, Discurso Comunicacional e Estratégias Corporativas</t>
+  </si>
+  <si>
+    <t>Experimentos em Marketing e Neurociência</t>
+  </si>
+  <si>
+    <t>Formação em Epistemologia</t>
+  </si>
+  <si>
+    <t>Fundamentos do Comportamento do Consumidor</t>
+  </si>
+  <si>
+    <t>Fundamentos Teóricos em Gestão Internacional</t>
+  </si>
+  <si>
+    <t>Gestão Global da Inovação</t>
+  </si>
+  <si>
+    <t>História das Interfaces Comunicação e Consumo I</t>
+  </si>
+  <si>
+    <t>História das Interfaces Comunicação e Consumo II</t>
+  </si>
+  <si>
+    <t>Inclusão da Diversidade e Causas nas Organizações</t>
+  </si>
+  <si>
+    <t>Internacionalização de Empresas com Foco em Inovação</t>
+  </si>
+  <si>
+    <t>Marketing de Relacionamento</t>
+  </si>
+  <si>
+    <t>Marketing e Difusão de Novos Produtos no Ambiente Global</t>
+  </si>
+  <si>
+    <t>Marketing em Agronegócios e Alimentos</t>
+  </si>
+  <si>
+    <t>Marketing em Gestão Internacional</t>
+  </si>
+  <si>
+    <t>Metodologia Qualitativa I</t>
+  </si>
+  <si>
+    <t>Metodologia Quantitativa I</t>
+  </si>
+  <si>
+    <t>Métodos de Pesquisa Qualitativa Avançada</t>
+  </si>
+  <si>
+    <t>Métodos de Pesquisa Qualitativa I</t>
+  </si>
+  <si>
+    <t>Métodos de Pesquisa Quantitativa I</t>
+  </si>
+  <si>
+    <t>Métricas e Escalas em Marketing</t>
+  </si>
+  <si>
+    <t>O Lado Obscuro do Marketing e Seus Consumidores</t>
+  </si>
+  <si>
+    <t>Parcerias Públicos-Privadas em Negócios Internacionais</t>
+  </si>
+  <si>
+    <t>Práticas Inovadoras</t>
+  </si>
+  <si>
+    <t>Projeto de Pesquisa</t>
+  </si>
+  <si>
+    <t>Seminário de Pesquisa I</t>
+  </si>
+  <si>
+    <t>Seminário de Pesquisa II</t>
+  </si>
+  <si>
+    <t>Seminários Avançados de Pesquisa em Comportamento do Consumidor</t>
+  </si>
+  <si>
+    <t>Seminários de Escrita Acadêmica</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção I</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção II</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção III</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção IV</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção I</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção II</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção III</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção IV</t>
+  </si>
+  <si>
+    <t>Teoria da Prática da Educação de Nível Superior</t>
+  </si>
+  <si>
+    <t>Teoria em Marketing</t>
+  </si>
+  <si>
+    <t>Teorias da Comunicação e da Mídia</t>
+  </si>
+  <si>
+    <t>Teorias das Organizações em Ambiente Global</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados de Marketing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15792,16 +15963,42 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -15809,11 +16006,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -15825,6 +16067,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16139,10 +16395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219025A3-1DDE-4F7F-BFB7-95D0DF3974FD}">
-  <dimension ref="A1:B5306"/>
+  <dimension ref="A1:B5365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5352" workbookViewId="0">
+      <selection activeCell="A5369" sqref="A5369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58591,7 +58847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5306" s="4" t="s">
         <v>5242</v>
       </c>
@@ -58599,7 +58855,480 @@
         <v>4653</v>
       </c>
     </row>
+    <row r="5307" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5307" s="5" t="s">
+        <v>5243</v>
+      </c>
+      <c r="B5307" s="9" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5308" s="6" t="s">
+        <v>5244</v>
+      </c>
+      <c r="B5308" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5309" s="6" t="s">
+        <v>5245</v>
+      </c>
+      <c r="B5309" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5310" s="6" t="s">
+        <v>5246</v>
+      </c>
+      <c r="B5310" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5311" s="7" t="s">
+        <v>5247</v>
+      </c>
+      <c r="B5311" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5312" s="6" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B5312" s="10" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5313" s="6" t="s">
+        <v>5249</v>
+      </c>
+      <c r="B5313" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5314" s="6" t="s">
+        <v>5250</v>
+      </c>
+      <c r="B5314" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5315" s="6" t="s">
+        <v>5251</v>
+      </c>
+      <c r="B5315" s="10" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5316" s="7" t="s">
+        <v>5252</v>
+      </c>
+      <c r="B5316" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5317" s="6" t="s">
+        <v>5253</v>
+      </c>
+      <c r="B5317" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5318" s="6" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B5318" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5319" s="6" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B5319" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5320" s="6" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B5320" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5321" s="6" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B5321" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5322" s="6" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B5322" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5323" s="6" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B5323" s="10" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5324" s="6" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B5324" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5325" s="6" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B5325" s="10" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5326" s="6" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B5326" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5327" s="6" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B5327" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5328" s="6" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B5328" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5329" s="6" t="s">
+        <v>5265</v>
+      </c>
+      <c r="B5329" s="10" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5330" s="6" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B5330" s="10" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5331" s="7" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B5331" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5332" s="6" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B5332" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5333" s="7" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B5333" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5334" s="8" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B5334" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5335" s="6" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B5335" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5336" s="6" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B5336" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5337" s="6" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B5337" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5338" s="7" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B5338" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5339" s="6" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B5339" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5340" s="6" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B5340" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5341" s="8" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B5341" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5342" s="7" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B5342" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5343" s="6" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B5343" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5344" s="6" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B5344" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5345" s="7" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B5345" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5346" s="6" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B5346" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5347" s="6" t="s">
+        <v>5281</v>
+      </c>
+      <c r="B5347" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5348" s="6" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B5348" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5349" s="6" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B5349" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5350" s="6" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B5350" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5351" s="6" t="s">
+        <v>5285</v>
+      </c>
+      <c r="B5351" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5352" s="6" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B5352" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5353" s="7" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B5353" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5354" s="7" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B5354" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5355" s="7" t="s">
+        <v>5289</v>
+      </c>
+      <c r="B5355" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5356" s="7" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B5356" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5357" s="6" t="s">
+        <v>5291</v>
+      </c>
+      <c r="B5357" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5358" s="6" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B5358" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5359" s="6" t="s">
+        <v>5293</v>
+      </c>
+      <c r="B5359" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5360" s="6" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B5360" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5361" s="6" t="s">
+        <v>5295</v>
+      </c>
+      <c r="B5361" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5362" s="6" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B5362" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5363" s="7" t="s">
+        <v>5297</v>
+      </c>
+      <c r="B5363" s="10" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5364" s="6" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B5364" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5365" s="6" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B5365" s="10" t="s">
+        <v>4657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/Book1.xlsx
+++ b/excel/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Fonseca\Desktop\BLOX\blox\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56C9FF5-E9D7-42C9-88C2-62579AFB083D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EB67C-DA30-44EE-8E5B-E4BD4AC520F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E06434F-E7E1-44D6-8390-C0FAB3174E9E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16093" uniqueCount="5392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16094" uniqueCount="5393">
   <si>
     <t>materias</t>
   </si>
@@ -16207,6 +16207,9 @@
   </si>
   <si>
     <t>Psicologia e Desenvolvimento Pessoal Pessoal</t>
+  </si>
+  <si>
+    <t>ÁREA FUNCIONAL</t>
   </si>
 </sst>
 </file>
@@ -16427,7 +16430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -16477,6 +16480,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16793,8 +16799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219025A3-1DDE-4F7F-BFB7-95D0DF3974FD}">
   <dimension ref="A1:G5365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5347" workbookViewId="0">
-      <selection activeCell="B5363" sqref="B5363"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16810,6 +16816,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="23" t="s">
+        <v>5392</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
